--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H2">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I2">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J2">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N2">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O2">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P2">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q2">
-        <v>32.0395570161337</v>
+        <v>49.760514529444</v>
       </c>
       <c r="R2">
-        <v>32.0395570161337</v>
+        <v>447.844630764996</v>
       </c>
       <c r="S2">
-        <v>0.003619640692543745</v>
+        <v>0.004625303610455564</v>
       </c>
       <c r="T2">
-        <v>0.003619640692543745</v>
+        <v>0.004625303610455564</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H3">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I3">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J3">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N3">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O3">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P3">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q3">
-        <v>18.53706152484757</v>
+        <v>20.29585518876933</v>
       </c>
       <c r="R3">
-        <v>18.53706152484757</v>
+        <v>182.662696698924</v>
       </c>
       <c r="S3">
-        <v>0.002094208174655409</v>
+        <v>0.00188652575580486</v>
       </c>
       <c r="T3">
-        <v>0.002094208174655409</v>
+        <v>0.00188652575580486</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H4">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I4">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J4">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N4">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O4">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P4">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q4">
-        <v>18.27964181934271</v>
+        <v>21.02557448283867</v>
       </c>
       <c r="R4">
-        <v>18.27964181934271</v>
+        <v>189.230170345548</v>
       </c>
       <c r="S4">
-        <v>0.00206512641048998</v>
+        <v>0.001954354099570896</v>
       </c>
       <c r="T4">
-        <v>0.00206512641048998</v>
+        <v>0.001954354099570896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H5">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I5">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J5">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N5">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O5">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P5">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q5">
-        <v>13.63551275017946</v>
+        <v>15.472569045128</v>
       </c>
       <c r="R5">
-        <v>13.63551275017946</v>
+        <v>139.253121406152</v>
       </c>
       <c r="S5">
-        <v>0.001540460025380355</v>
+        <v>0.00143819512607948</v>
       </c>
       <c r="T5">
-        <v>0.001540460025380355</v>
+        <v>0.00143819512607948</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H6">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I6">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J6">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N6">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O6">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P6">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q6">
-        <v>10.67759591007448</v>
+        <v>11.903055196056</v>
       </c>
       <c r="R6">
-        <v>10.67759591007448</v>
+        <v>107.127496764504</v>
       </c>
       <c r="S6">
-        <v>0.001206291979479688</v>
+        <v>0.001106404238267928</v>
       </c>
       <c r="T6">
-        <v>0.001206291979479688</v>
+        <v>0.001106404238267928</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H7">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I7">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J7">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N7">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O7">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P7">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q7">
-        <v>4.08312908632921</v>
+        <v>4.501365759870667</v>
       </c>
       <c r="R7">
-        <v>4.08312908632921</v>
+        <v>40.512291838836</v>
       </c>
       <c r="S7">
-        <v>0.0004612879068940899</v>
+        <v>0.0004184077174039519</v>
       </c>
       <c r="T7">
-        <v>0.0004612879068940899</v>
+        <v>0.0004184077174039519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H8">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I8">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J8">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N8">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O8">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P8">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q8">
-        <v>534.6572074423888</v>
+        <v>780.11422605955</v>
       </c>
       <c r="R8">
-        <v>534.6572074423888</v>
+        <v>7021.028034535949</v>
       </c>
       <c r="S8">
-        <v>0.06040242640201791</v>
+        <v>0.07251261729269143</v>
       </c>
       <c r="T8">
-        <v>0.06040242640201791</v>
+        <v>0.07251261729269141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H9">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I9">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J9">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N9">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O9">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P9">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q9">
-        <v>309.3355361958352</v>
+        <v>318.1857244147833</v>
       </c>
       <c r="R9">
-        <v>309.3355361958352</v>
+        <v>2863.67151973305</v>
       </c>
       <c r="S9">
-        <v>0.03494690934398564</v>
+        <v>0.02957577094706863</v>
       </c>
       <c r="T9">
-        <v>0.03494690934398564</v>
+        <v>0.02957577094706863</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H10">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I10">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J10">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N10">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O10">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P10">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q10">
-        <v>305.0398681622053</v>
+        <v>329.6258071333166</v>
       </c>
       <c r="R10">
-        <v>305.0398681622053</v>
+        <v>2966.632264199849</v>
       </c>
       <c r="S10">
-        <v>0.03446161003699594</v>
+        <v>0.03063914130009487</v>
       </c>
       <c r="T10">
-        <v>0.03446161003699594</v>
+        <v>0.03063914130009487</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H11">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I11">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J11">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N11">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O11">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P11">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q11">
-        <v>227.5413847134326</v>
+        <v>242.5692607871</v>
       </c>
       <c r="R11">
-        <v>227.5413847134326</v>
+        <v>2183.1233470839</v>
       </c>
       <c r="S11">
-        <v>0.0257062872289949</v>
+        <v>0.02254712372478048</v>
       </c>
       <c r="T11">
-        <v>0.0257062872289949</v>
+        <v>0.02254712372478048</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H12">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I12">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J12">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N12">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O12">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P12">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q12">
-        <v>178.1814151988421</v>
+        <v>186.6086550717</v>
       </c>
       <c r="R12">
-        <v>178.1814151988421</v>
+        <v>1679.4778956453</v>
       </c>
       <c r="S12">
-        <v>0.02012988821237421</v>
+        <v>0.01734551369107467</v>
       </c>
       <c r="T12">
-        <v>0.02012988821237421</v>
+        <v>0.01734551369107467</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H13">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I13">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J13">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N13">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O13">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P13">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q13">
-        <v>68.13684701771214</v>
+        <v>70.56959718321666</v>
       </c>
       <c r="R13">
-        <v>68.13684701771214</v>
+        <v>635.1263746489499</v>
       </c>
       <c r="S13">
-        <v>0.00769770018988547</v>
+        <v>0.006559534517007211</v>
       </c>
       <c r="T13">
-        <v>0.00769770018988547</v>
+        <v>0.006559534517007211</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H14">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I14">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J14">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N14">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O14">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P14">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q14">
-        <v>227.8261723373084</v>
+        <v>403.5711519138737</v>
       </c>
       <c r="R14">
-        <v>227.8261723373084</v>
+        <v>3632.140367224863</v>
       </c>
       <c r="S14">
-        <v>0.02573846085959768</v>
+        <v>0.03751245588343814</v>
       </c>
       <c r="T14">
-        <v>0.02573846085959768</v>
+        <v>0.03751245588343814</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H15">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I15">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J15">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N15">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O15">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P15">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q15">
-        <v>131.8129264852377</v>
+        <v>164.6048425154885</v>
       </c>
       <c r="R15">
-        <v>131.8129264852377</v>
+        <v>1481.443582639397</v>
       </c>
       <c r="S15">
-        <v>0.01489144910052873</v>
+        <v>0.01530023110864054</v>
       </c>
       <c r="T15">
-        <v>0.01489144910052873</v>
+        <v>0.01530023110864054</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H16">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I16">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J16">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N16">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O16">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P16">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q16">
-        <v>129.9824721453154</v>
+        <v>170.5230621895854</v>
       </c>
       <c r="R16">
-        <v>129.9824721453154</v>
+        <v>1534.707559706269</v>
       </c>
       <c r="S16">
-        <v>0.01468465513607755</v>
+        <v>0.01585033721354973</v>
       </c>
       <c r="T16">
-        <v>0.01468465513607755</v>
+        <v>0.01585033721354973</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H17">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I17">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J17">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N17">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O17">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P17">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q17">
-        <v>96.95910203020729</v>
+        <v>125.4866950564673</v>
       </c>
       <c r="R17">
-        <v>96.95910203020729</v>
+        <v>1129.380255508206</v>
       </c>
       <c r="S17">
-        <v>0.01095386902647601</v>
+        <v>0.01166414915917671</v>
       </c>
       <c r="T17">
-        <v>0.01095386902647601</v>
+        <v>0.01166414915917671</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H18">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I18">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J18">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N18">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O18">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P18">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q18">
-        <v>75.92601248300032</v>
+        <v>96.53697800741799</v>
       </c>
       <c r="R18">
-        <v>75.92601248300032</v>
+        <v>868.8328020667619</v>
       </c>
       <c r="S18">
-        <v>0.008577674287683273</v>
+        <v>0.00897323585060544</v>
       </c>
       <c r="T18">
-        <v>0.008577674287683273</v>
+        <v>0.00897323585060544</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H19">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I19">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J19">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N19">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O19">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P19">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q19">
-        <v>29.03422386361602</v>
+        <v>36.5072865920981</v>
       </c>
       <c r="R19">
-        <v>29.03422386361602</v>
+        <v>328.565579328883</v>
       </c>
       <c r="S19">
-        <v>0.003280115830573088</v>
+        <v>0.003393399085181326</v>
       </c>
       <c r="T19">
-        <v>0.003280115830573088</v>
+        <v>0.003393399085181326</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H20">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I20">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J20">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N20">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O20">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P20">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q20">
-        <v>265.7425259648041</v>
+        <v>405.8092529203974</v>
       </c>
       <c r="R20">
-        <v>265.7425259648041</v>
+        <v>3652.283276283576</v>
       </c>
       <c r="S20">
-        <v>0.03002202746552336</v>
+        <v>0.03772049024087858</v>
       </c>
       <c r="T20">
-        <v>0.03002202746552336</v>
+        <v>0.03772049024087858</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H21">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I21">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J21">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N21">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O21">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P21">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q21">
-        <v>153.7501143070555</v>
+        <v>165.5176983079938</v>
       </c>
       <c r="R21">
-        <v>153.7501143070555</v>
+        <v>1489.659284771944</v>
       </c>
       <c r="S21">
-        <v>0.0173697835444114</v>
+        <v>0.01538508222468761</v>
       </c>
       <c r="T21">
-        <v>0.0173697835444114</v>
+        <v>0.01538508222468761</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H22">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I22">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J22">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N22">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O22">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P22">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q22">
-        <v>151.6150235272569</v>
+        <v>171.4687388944542</v>
       </c>
       <c r="R22">
-        <v>151.6150235272569</v>
+        <v>1543.218650050088</v>
       </c>
       <c r="S22">
-        <v>0.01712857354687797</v>
+        <v>0.0159382390754721</v>
       </c>
       <c r="T22">
-        <v>0.01712857354687797</v>
+        <v>0.0159382390754721</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H23">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I23">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J23">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N23">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O23">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P23">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q23">
-        <v>113.0956835399856</v>
+        <v>126.1826117422347</v>
       </c>
       <c r="R23">
-        <v>113.0956835399856</v>
+        <v>1135.643505680112</v>
       </c>
       <c r="S23">
-        <v>0.012776885088837</v>
+        <v>0.01172883550717159</v>
       </c>
       <c r="T23">
-        <v>0.012776885088837</v>
+        <v>0.01172883550717159</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H24">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I24">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J24">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N24">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O24">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P24">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q24">
-        <v>88.56212671560407</v>
+        <v>97.072347065936</v>
       </c>
       <c r="R24">
-        <v>88.56212671560407</v>
+        <v>873.651123593424</v>
       </c>
       <c r="S24">
-        <v>0.01000522814708688</v>
+        <v>0.009022999090851365</v>
       </c>
       <c r="T24">
-        <v>0.01000522814708688</v>
+        <v>0.009022999090851365</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H25">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I25">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J25">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N25">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O25">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P25">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q25">
-        <v>33.86629336651248</v>
+        <v>36.70974654117956</v>
       </c>
       <c r="R25">
-        <v>33.86629336651248</v>
+        <v>330.387718870616</v>
       </c>
       <c r="S25">
-        <v>0.003826014620405802</v>
+        <v>0.003412217996969406</v>
       </c>
       <c r="T25">
-        <v>0.003826014620405802</v>
+        <v>0.003412217996969406</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H26">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I26">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J26">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N26">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O26">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P26">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q26">
-        <v>1677.631473171359</v>
+        <v>2440.122549367125</v>
       </c>
       <c r="R26">
-        <v>1677.631473171359</v>
+        <v>21961.10294430412</v>
       </c>
       <c r="S26">
-        <v>0.1895289358815216</v>
+        <v>0.2268125188067243</v>
       </c>
       <c r="T26">
-        <v>0.1895289358815216</v>
+        <v>0.2268125188067243</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H27">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I27">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J27">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N27">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O27">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P27">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q27">
-        <v>970.6238391042174</v>
+        <v>995.2544577388068</v>
       </c>
       <c r="R27">
-        <v>970.6238391042174</v>
+        <v>8957.290119649262</v>
       </c>
       <c r="S27">
-        <v>0.1096553720579067</v>
+        <v>0.0925101776023121</v>
       </c>
       <c r="T27">
-        <v>0.1096553720579067</v>
+        <v>0.09251017760231213</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H28">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I28">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J28">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N28">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O28">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P28">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q28">
-        <v>957.1450197949493</v>
+        <v>1031.037940305355</v>
       </c>
       <c r="R28">
-        <v>957.1450197949493</v>
+        <v>9279.341462748196</v>
       </c>
       <c r="S28">
-        <v>0.1081326143357977</v>
+        <v>0.09583629817551871</v>
       </c>
       <c r="T28">
-        <v>0.1081326143357977</v>
+        <v>0.09583629817551872</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H29">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I29">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J29">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N29">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O29">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P29">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q29">
-        <v>713.9725849209275</v>
+        <v>758.7334050036087</v>
       </c>
       <c r="R29">
-        <v>713.9725849209275</v>
+        <v>6828.600645032478</v>
       </c>
       <c r="S29">
-        <v>0.08066042300269888</v>
+        <v>0.0705252425687819</v>
       </c>
       <c r="T29">
-        <v>0.08066042300269888</v>
+        <v>0.07052524256878191</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H30">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I30">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J30">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N30">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O30">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P30">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q30">
-        <v>559.0923416177852</v>
+        <v>583.6939924138339</v>
       </c>
       <c r="R30">
-        <v>559.0923416177852</v>
+        <v>5253.245931724507</v>
       </c>
       <c r="S30">
-        <v>0.06316296413181528</v>
+        <v>0.05425510479630272</v>
       </c>
       <c r="T30">
-        <v>0.06316296413181528</v>
+        <v>0.05425510479630273</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H31">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I31">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J31">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N31">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O31">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P31">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q31">
-        <v>213.7977706994497</v>
+        <v>220.7349380824865</v>
       </c>
       <c r="R31">
-        <v>213.7977706994497</v>
+        <v>1986.614442742379</v>
       </c>
       <c r="S31">
-        <v>0.02415361455868998</v>
+        <v>0.020517595441311</v>
       </c>
       <c r="T31">
-        <v>0.02415361455868998</v>
+        <v>0.02051759544131101</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H32">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I32">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J32">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N32">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O32">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P32">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q32">
-        <v>178.2323734111387</v>
+        <v>274.431468008856</v>
       </c>
       <c r="R32">
-        <v>178.2323734111387</v>
+        <v>2469.883212079704</v>
       </c>
       <c r="S32">
-        <v>0.02013564517145936</v>
+        <v>0.0255087567282469</v>
       </c>
       <c r="T32">
-        <v>0.02013564517145936</v>
+        <v>0.02550875672824689</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H33">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I33">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J33">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N33">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O33">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P33">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q33">
-        <v>103.1195428194648</v>
+        <v>111.932551072264</v>
       </c>
       <c r="R33">
-        <v>103.1195428194648</v>
+        <v>1007.392959650376</v>
       </c>
       <c r="S33">
-        <v>0.01164983939065971</v>
+        <v>0.0104042741016213</v>
       </c>
       <c r="T33">
-        <v>0.01164983939065971</v>
+        <v>0.0104042741016213</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H34">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I34">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J34">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N34">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O34">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P34">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q34">
-        <v>101.6875465826934</v>
+        <v>115.956985686728</v>
       </c>
       <c r="R34">
-        <v>101.6875465826934</v>
+        <v>1043.612871180552</v>
       </c>
       <c r="S34">
-        <v>0.01148806087894129</v>
+        <v>0.01077835045771099</v>
       </c>
       <c r="T34">
-        <v>0.01148806087894129</v>
+        <v>0.01077835045771099</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H35">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I35">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J35">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N35">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O35">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P35">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q35">
-        <v>75.85279031537613</v>
+        <v>85.33191179947201</v>
       </c>
       <c r="R35">
-        <v>75.85279031537613</v>
+        <v>767.9872061952481</v>
       </c>
       <c r="S35">
-        <v>0.008569402077883516</v>
+        <v>0.0079317105834915</v>
       </c>
       <c r="T35">
-        <v>0.008569402077883516</v>
+        <v>0.0079317105834915</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H36">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I36">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J36">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N36">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O36">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P36">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q36">
-        <v>59.39823888386873</v>
+        <v>65.64588292814399</v>
       </c>
       <c r="R36">
-        <v>59.39823888386873</v>
+        <v>590.8129463532961</v>
       </c>
       <c r="S36">
-        <v>0.00671046364408911</v>
+        <v>0.006101868965591669</v>
       </c>
       <c r="T36">
-        <v>0.00671046364408911</v>
+        <v>0.006101868965591669</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H37">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I37">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J37">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N37">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O37">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P37">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q37">
-        <v>22.71397783789735</v>
+        <v>24.825233927096</v>
       </c>
       <c r="R37">
-        <v>22.71397783789735</v>
+        <v>223.427105343864</v>
       </c>
       <c r="S37">
-        <v>0.002566091610760706</v>
+        <v>0.002307537315464412</v>
       </c>
       <c r="T37">
-        <v>0.002566091610760706</v>
+        <v>0.002307537315464412</v>
       </c>
     </row>
   </sheetData>
